--- a/public/formats/quotations.xlsx
+++ b/public/formats/quotations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25034BE0-5B65-4AAA-B5BD-D2D78A5A41CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26C4E56-F45B-496D-BCDA-9D78E4ECD57A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,45 +25,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
-    <t>Orden de producción</t>
-  </si>
-  <si>
-    <t>Comentario</t>
-  </si>
-  <si>
-    <t>Número de ficha</t>
-  </si>
-  <si>
-    <t>OP-P-00054</t>
-  </si>
-  <si>
-    <t>Tener cuidado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Código lote </t>
-  </si>
-  <si>
-    <t>P0054</t>
-  </si>
-  <si>
-    <t>C-UDLA-2020</t>
-  </si>
-  <si>
-    <t>Producto(ID interno)</t>
-  </si>
-  <si>
-    <t>Maquina(Modelo O Nombre)</t>
-  </si>
-  <si>
-    <t>Bodega(Código)</t>
-  </si>
-  <si>
-    <t>001</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+  <si>
+    <t>1390073891001</t>
+  </si>
+  <si>
+    <t>Baron de Carondelete</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Client(RUC/CI)</t>
+  </si>
+  <si>
+    <t>Date of issue(d/m/y)</t>
+  </si>
+  <si>
+    <t>Validity period(number of days)</t>
+  </si>
+  <si>
+    <t>Delivery time(number of days)</t>
+  </si>
+  <si>
+    <t>Delivery address</t>
+  </si>
+  <si>
+    <t>Product ID(ID/BARCODE/INTERNAL ID)</t>
+  </si>
+  <si>
+    <t>M2023</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>PDF Name</t>
+  </si>
+  <si>
+    <t>Mouse RGB</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>TMRGB12</t>
+  </si>
+  <si>
+    <t>Teclado Mecanico</t>
+  </si>
+  <si>
+    <t>Bella Maria</t>
+  </si>
+  <si>
+    <t>1790368718001</t>
   </si>
 </sst>
 </file>
@@ -116,11 +131,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -504,80 +520,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="H2" s="4">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>43</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H3" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E8" s="2"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
